--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -134,7 +134,7 @@
     <t>Jember</t>
   </si>
   <si>
-    <t>Pekerjaan Struktur, Pekerjaan Arsitektur, Pekerjaan Sipil, Pekerjaan Lainya</t>
+    <t>Pekerjaan Mekanikal, Pekerjaan Elektrikal, Pekerjaan Lainya</t>
   </si>
   <si>
     <t>PT. Tempo Land (PT. Tempo Nagadi Trading)</t>
@@ -496,7 +496,7 @@
     <col min="4" max="4" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="89.549561" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="70.697021" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="23.422852" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="49.416504" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="214.661865" bestFit="true" customWidth="true" style="0"/>
